--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="15">
   <si>
     <t>维度信息</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>互信息平方</t>
+  </si>
+  <si>
+    <t>距离相关系数</t>
   </si>
   <si>
     <t>模型</t>
@@ -83,13 +86,49 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei ( 0deg )"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="5.5"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei ( 0deg )"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="5.5"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei ( 0deg )"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -556,139 +595,157 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1001,306 +1058,378 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" ht="30" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2">
+    <row r="2" ht="26.4" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1">
         <v>0.356</v>
       </c>
+      <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+    <row r="3" ht="26.4" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3">
+      <c r="J3" s="1">
         <v>0.368</v>
       </c>
+      <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+    <row r="4" ht="26.4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="J4" s="1">
+        <v>0.3984</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" ht="26.4" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>0.3984</v>
-      </c>
+      <c r="J5" s="1">
+        <v>0.3996</v>
+      </c>
+      <c r="K5" s="3"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.4134</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" ht="26.4" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="J7" s="6">
+        <v>0.3975</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" ht="30" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="J8" s="4">
+        <v>0.4035</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" ht="30" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>0.3996</v>
+      <c r="J9" s="2">
+        <v>0.4038</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+    <row r="10" ht="30" spans="1:11">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="J10" s="2">
+        <v>0.4083</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" ht="30" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>0.4134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>0.3975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>0.4035</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>0.4038</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <v>0.4083</v>
-      </c>
+      <c r="J11" s="3">
+        <v>0.4145</v>
+      </c>
+      <c r="K11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="20">
   <si>
     <t>维度信息</t>
   </si>
@@ -55,25 +55,82 @@
     <t>距离相关系数</t>
   </si>
   <si>
+    <t>线性回归系数</t>
+  </si>
+  <si>
+    <t>drop t检验</t>
+  </si>
+  <si>
+    <t>条件互信息</t>
+  </si>
+  <si>
+    <t>条件互信息平方</t>
+  </si>
+  <si>
     <t>模型</t>
   </si>
   <si>
     <t>Peformance</t>
   </si>
   <si>
-    <t>❌</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>❌</t>
+    </r>
   </si>
   <si>
     <t>Random Forest</t>
   </si>
   <si>
-    <t>✔️</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei ( 0deg )"/>
+        <charset val="134"/>
+      </rPr>
+      <t>️</t>
+    </r>
   </si>
   <si>
     <t>LGBM</t>
   </si>
   <si>
-    <t>深度 + 1 0.4040</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>️</t>
+    </r>
+  </si>
+  <si>
+    <t>改变不大（一次0.417,一次0.420），且特征重要性较低，后面还是不要了</t>
   </si>
 </sst>
 </file>
@@ -86,13 +143,187 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -102,177 +333,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="5.5"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei ( 0deg )"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="5.5"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei ( 0deg )"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -595,133 +658,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -735,17 +798,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1058,15 +1121,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="14.5092592592593" customWidth="1"/>
+    <col min="5" max="5" width="15.6851851851852" customWidth="1"/>
+    <col min="10" max="10" width="11.3703703703704" customWidth="1"/>
+    <col min="11" max="11" width="12.537037037037" customWidth="1"/>
+    <col min="12" max="12" width="22.0925925925926" customWidth="1"/>
+    <col min="14" max="14" width="12.1481481481481" customWidth="1"/>
+    <col min="15" max="15" width="15.9444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:11">
+    <row r="1" ht="30" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,351 +1157,693 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="26.4" spans="1:11">
+    <row r="2" ht="30" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1">
         <v>0.356</v>
       </c>
-      <c r="K2" s="3"/>
     </row>
-    <row r="3" ht="26.4" spans="1:11">
+    <row r="3" ht="30" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1">
         <v>0.368</v>
       </c>
-      <c r="K3" s="3"/>
     </row>
-    <row r="4" ht="26.4" spans="1:11">
+    <row r="4" ht="30" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="1">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="1">
         <v>0.3984</v>
       </c>
-      <c r="K4" s="3"/>
     </row>
-    <row r="5" ht="26.4" spans="1:11">
+    <row r="5" ht="30" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="1">
         <v>0.3996</v>
       </c>
-      <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" ht="15" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="1">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="1">
         <v>0.4134</v>
       </c>
-      <c r="K6" s="3"/>
     </row>
-    <row r="7" ht="26.4" spans="1:11">
+    <row r="7" ht="30" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="6">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="2">
         <v>0.3975</v>
       </c>
-      <c r="K7" s="3"/>
     </row>
-    <row r="8" ht="30" spans="1:11">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
+    <row r="8" ht="30" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="4">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="1">
         <v>0.4035</v>
       </c>
-      <c r="K8" s="3"/>
     </row>
-    <row r="9" ht="30" spans="1:11">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>12</v>
+    <row r="9" ht="30" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="2">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="2">
         <v>0.4038</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="10" ht="30" spans="1:11">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>12</v>
+    <row r="10" ht="30" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="2">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="2">
         <v>0.4083</v>
       </c>
-      <c r="K10" s="3"/>
     </row>
-    <row r="11" ht="30" spans="1:11">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="3">
+    <row r="11" ht="30" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="2">
         <v>0.4145</v>
       </c>
-      <c r="K11" s="3"/>
+    </row>
+    <row r="12" ht="30" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.4143</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.4196</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0.4324</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.4196</v>
+      </c>
+      <c r="O16" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="23">
   <si>
     <t>维度信息</t>
   </si>
@@ -67,30 +67,30 @@
     <t>条件互信息平方</t>
   </si>
   <si>
+    <t>新线性特征</t>
+  </si>
+  <si>
+    <t>斯皮尔曼，肯德尔(v,others)</t>
+  </si>
+  <si>
+    <t>条件信息熵</t>
+  </si>
+  <si>
     <t>模型</t>
   </si>
   <si>
     <t>Peformance</t>
+  </si>
+  <si>
+    <t>❌</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>❌</t>
-    </r>
-  </si>
-  <si>
-    <t>Random Forest</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -99,7 +99,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei ( 0deg )"/>
         <charset val="134"/>
       </rPr>
@@ -113,7 +112,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -122,7 +120,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
@@ -143,7 +140,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,20 +150,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -321,19 +310,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Microsoft YaHei ( 0deg )"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -658,137 +639,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,14 +779,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1121,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1138,7 +1113,7 @@
     <col min="15" max="15" width="15.9444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:14">
+    <row r="1" ht="30" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,701 +1123,1025 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3"/>
     </row>
-    <row r="2" ht="30" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1">
+    <row r="2" ht="30" spans="1:18">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1">
         <v>0.356</v>
       </c>
+      <c r="R2" s="3"/>
     </row>
-    <row r="3" ht="30" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1">
+    <row r="3" ht="30" spans="1:18">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1">
         <v>0.368</v>
       </c>
+      <c r="R3" s="3"/>
     </row>
-    <row r="4" ht="30" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="1">
+    <row r="4" ht="30" spans="1:18">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="1">
         <v>0.3984</v>
       </c>
+      <c r="R4" s="3"/>
     </row>
-    <row r="5" ht="30" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="1">
+    <row r="5" ht="30" spans="1:18">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="1">
         <v>0.3996</v>
       </c>
+      <c r="R5" s="3"/>
     </row>
-    <row r="6" ht="15" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="1">
+    <row r="6" ht="15" spans="1:18">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="1">
         <v>0.4134</v>
       </c>
+      <c r="R6" s="3"/>
     </row>
-    <row r="7" ht="30" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="2">
+    <row r="7" ht="30" spans="1:18">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="1">
         <v>0.3975</v>
       </c>
+      <c r="R7" s="3"/>
     </row>
-    <row r="8" ht="30" spans="1:14">
-      <c r="A8" s="1" t="s">
+    <row r="8" ht="30" spans="1:18">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="Q8" s="1">
+        <v>0.4035</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" ht="30" spans="1:18">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="Q9" s="1">
+        <v>0.4038</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" ht="30" spans="1:18">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="Q10" s="1">
+        <v>0.4083</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" ht="30" spans="1:18">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="Q11" s="1">
+        <v>0.4145</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" ht="30" spans="1:18">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.4035</v>
-      </c>
+      <c r="Q12" s="1">
+        <v>0.413</v>
+      </c>
+      <c r="R12" s="3"/>
     </row>
-    <row r="9" ht="30" spans="1:14">
-      <c r="A9" s="1" t="s">
+    <row r="13" ht="30" spans="1:18">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="Q13" s="1">
+        <v>0.4143</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" ht="30" spans="1:18">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="Q14" s="1">
+        <v>0.4196</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" ht="15" spans="1:18">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0.4324</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" ht="30" spans="1:18">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="Q16" s="1">
+        <v>0.4196</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="1:18">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="Q17" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" ht="30" spans="1:17">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.4038</v>
+      <c r="Q18" s="3">
+        <v>0.4383</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="1:14">
-      <c r="A10" s="1" t="s">
+    <row r="19" ht="30" spans="1:17">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.4083</v>
+      <c r="Q19" s="4">
+        <v>0.4372</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="1:14">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.4145</v>
-      </c>
-    </row>
-    <row r="12" ht="30" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0.413</v>
-      </c>
-    </row>
-    <row r="13" ht="30" spans="1:14">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.4143</v>
-      </c>
-    </row>
-    <row r="14" ht="30" spans="1:14">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0.4196</v>
-      </c>
-    </row>
-    <row r="15" ht="15.6" spans="1:14">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0.4324</v>
-      </c>
-    </row>
-    <row r="16" ht="30" spans="1:15">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.4196</v>
-      </c>
-      <c r="O16" t="s">
-        <v>19</v>
+    <row r="20" spans="15:15">
+      <c r="O20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="24">
   <si>
     <t>维度信息</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>条件信息熵</t>
+  </si>
+  <si>
+    <t>HSIC</t>
   </si>
   <si>
     <t>模型</t>
@@ -127,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>改变不大（一次0.417,一次0.420），且特征重要性较低，后面还是不要了</t>
+    <t>Layer + 1: 0.441</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +166,13 @@
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -310,12 +320,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Microsoft YaHei ( 0deg )"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -639,137 +649,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,6 +793,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1096,10 +1109,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1159,989 +1172,1078 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3"/>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" ht="30" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1">
+        <v>18</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1">
         <v>0.356</v>
       </c>
-      <c r="R2" s="3"/>
     </row>
     <row r="3" ht="30" spans="1:18">
       <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>0.368</v>
       </c>
-      <c r="R3" s="3"/>
     </row>
     <row r="4" ht="30" spans="1:18">
       <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>0.3984</v>
       </c>
-      <c r="R4" s="3"/>
     </row>
     <row r="5" ht="30" spans="1:18">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>0.3996</v>
       </c>
-      <c r="R5" s="3"/>
     </row>
     <row r="6" ht="15" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="1">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="1">
         <v>0.4134</v>
       </c>
-      <c r="R6" s="3"/>
     </row>
     <row r="7" ht="30" spans="1:18">
       <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>0.3975</v>
       </c>
-      <c r="R7" s="3"/>
     </row>
     <row r="8" ht="30" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="1">
+        <v>18</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="1">
         <v>0.4035</v>
       </c>
-      <c r="R8" s="3"/>
     </row>
     <row r="9" ht="30" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>0.4038</v>
       </c>
-      <c r="R9" s="3"/>
     </row>
     <row r="10" ht="30" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="1">
+        <v>18</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="1">
         <v>0.4083</v>
       </c>
-      <c r="R10" s="3"/>
     </row>
     <row r="11" ht="30" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>0.4145</v>
       </c>
-      <c r="R11" s="3"/>
     </row>
     <row r="12" ht="30" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>0.413</v>
       </c>
-      <c r="R12" s="3"/>
     </row>
     <row r="13" ht="30" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>0.4143</v>
       </c>
-      <c r="R13" s="3"/>
     </row>
     <row r="14" ht="30" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>0.4196</v>
       </c>
-      <c r="R14" s="3"/>
     </row>
     <row r="15" ht="15" spans="1:18">
       <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>0.4324</v>
       </c>
-      <c r="R15" s="3"/>
     </row>
     <row r="16" ht="30" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <v>0.4196</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:18">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="R17" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="18" ht="30" spans="1:19">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="R18" s="3">
+        <v>0.4383</v>
+      </c>
+      <c r="S18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:18">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="R19" s="4">
+        <v>0.4372</v>
+      </c>
+    </row>
+    <row r="20" ht="30" spans="2:18">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" ht="30" spans="1:17">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0.4383</v>
-      </c>
-    </row>
-    <row r="19" ht="30" spans="1:17">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0.4372</v>
-      </c>
-    </row>
-    <row r="20" spans="15:15">
-      <c r="O20" s="2" t="s">
-        <v>17</v>
+      <c r="R20" s="5">
+        <v>0.437</v>
       </c>
     </row>
   </sheetData>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="25">
   <si>
     <t>维度信息</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>HSIC</t>
+  </si>
+  <si>
+    <t>偏相关系数</t>
   </si>
   <si>
     <t>模型</t>
@@ -320,12 +323,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Microsoft YaHei ( 0deg )"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei ( 0deg )"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1109,24 +1112,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="14.5092592592593" customWidth="1"/>
-    <col min="5" max="5" width="15.6851851851852" customWidth="1"/>
+    <col min="5" max="5" width="16.9814814814815" customWidth="1"/>
+    <col min="7" max="7" width="11.4259259259259" customWidth="1"/>
+    <col min="8" max="8" width="13.0092592592593" customWidth="1"/>
     <col min="10" max="10" width="11.3703703703704" customWidth="1"/>
     <col min="11" max="11" width="12.537037037037" customWidth="1"/>
-    <col min="12" max="12" width="22.0925925925926" customWidth="1"/>
-    <col min="14" max="14" width="12.1481481481481" customWidth="1"/>
+    <col min="12" max="12" width="13.8055555555556" customWidth="1"/>
+    <col min="13" max="13" width="10.4722222222222" customWidth="1"/>
+    <col min="14" max="14" width="28.8796296296296" customWidth="1"/>
     <col min="15" max="15" width="15.9444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:18">
+    <row r="1" ht="30" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,1075 +1181,1191 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" ht="30" spans="1:18">
+    <row r="2" ht="30" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1">
         <v>0.356</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:18">
+    <row r="3" ht="30" spans="1:19">
       <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>0.368</v>
       </c>
     </row>
-    <row r="4" ht="30" spans="1:18">
+    <row r="4" ht="30" spans="1:19">
       <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="S4" s="1">
+        <v>0.3984</v>
+      </c>
+    </row>
+    <row r="5" ht="30" spans="1:19">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0.3984</v>
+      <c r="S5" s="1">
+        <v>0.3996</v>
       </c>
     </row>
-    <row r="5" ht="30" spans="1:18">
-      <c r="A5" s="2" t="s">
+    <row r="6" ht="15" spans="1:19">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.4134</v>
+      </c>
+    </row>
+    <row r="7" ht="30" spans="1:19">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="S7" s="1">
+        <v>0.3975</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:19">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="S8" s="1">
+        <v>0.4035</v>
+      </c>
+    </row>
+    <row r="9" ht="30" spans="1:19">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0.3996</v>
+      <c r="S9" s="1">
+        <v>0.4038</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:18">
-      <c r="A6" s="2" t="s">
+    <row r="10" ht="30" spans="1:19">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="S10" s="1">
+        <v>0.4083</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="1:19">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="S11" s="1">
+        <v>0.4145</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="1:19">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0.4134</v>
+      <c r="S12" s="1">
+        <v>0.413</v>
       </c>
     </row>
-    <row r="7" ht="30" spans="1:18">
-      <c r="A7" s="2" t="s">
+    <row r="13" ht="30" spans="1:19">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="S13" s="1">
+        <v>0.4143</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:19">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="S14" s="1">
+        <v>0.4196</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:19">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.4324</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:19">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="S16" s="1">
+        <v>0.4196</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="1:19">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0.3975</v>
+      <c r="S17" s="3">
+        <v>0.4375</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:18">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0.4035</v>
+    <row r="18" ht="30" spans="1:20">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0.4383</v>
+      </c>
+      <c r="T18" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:18">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
+    <row r="19" ht="30" spans="1:19">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0.4038</v>
+      <c r="S19" s="4">
+        <v>0.4372</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="1:18">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0.4083</v>
+    <row r="20" ht="30" spans="2:19">
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.437</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="1:18">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="2" t="s">
+    <row r="21" ht="30" spans="2:19">
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0.4145</v>
-      </c>
-    </row>
-    <row r="12" ht="30" spans="1:18">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0.413</v>
-      </c>
-    </row>
-    <row r="13" ht="30" spans="1:18">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0.4143</v>
-      </c>
-    </row>
-    <row r="14" ht="30" spans="1:18">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0.4196</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:18">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0.4324</v>
-      </c>
-    </row>
-    <row r="16" ht="30" spans="1:18">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0.4196</v>
-      </c>
-    </row>
-    <row r="17" ht="30" spans="1:18">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="18" ht="30" spans="1:19">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0.4383</v>
-      </c>
-      <c r="S18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" ht="30" spans="1:18">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0.4372</v>
-      </c>
-    </row>
-    <row r="20" ht="30" spans="2:18">
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="5">
-        <v>0.437</v>
+      <c r="S21">
+        <v>0.447</v>
       </c>
     </row>
   </sheetData>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -161,7 +161,7 @@
     <t>线性回归v3：X v v^2 ~ Y、v ~ X</t>
   </si>
   <si>
-    <t>增加核密度估计，掉分 0.468</t>
+    <t>增加p检验等，掉分 0.468</t>
   </si>
   <si>
     <t>增加交叉熵特征 掉分 0.466</t>
@@ -1213,8 +1213,8 @@
   </sheetPr>
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="V7" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
